--- a/Planilha_organizacao_tarefas_2021.xlsx
+++ b/Planilha_organizacao_tarefas_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>TASK 07</t>
+  </si>
+  <si>
+    <t>Gabriel Maia</t>
   </si>
   <si>
     <t>TASK 08</t>
@@ -376,7 +379,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -488,7 +491,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -600,7 +603,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -712,7 +715,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -824,7 +827,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -908,7 +911,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -964,7 +967,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1076,7 +1079,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1193,7 +1196,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1305,7 +1308,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1417,7 +1420,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1529,7 +1532,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1641,7 +1644,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1725,7 +1728,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1781,7 +1784,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1893,7 +1896,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2005,7 +2008,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2654,7 +2657,9 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
@@ -2694,7 +2699,9 @@
     </row>
     <row r="30" ht="20.25" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="G30" s="11"/>
@@ -2726,7 +2733,9 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
       <c r="G34" s="17"/>
@@ -2734,7 +2743,9 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" s="20"/>
       <c r="E35" s="18"/>
       <c r="G35" s="20"/>
@@ -2742,7 +2753,9 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="20"/>
       <c r="E36" s="18"/>
       <c r="G36" s="20"/>
@@ -2750,7 +2763,9 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
       <c r="G37" s="21"/>
@@ -2758,7 +2773,9 @@
     </row>
     <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
       <c r="G38" s="11"/>
@@ -2795,7 +2812,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" s="8"/>
       <c r="E43" s="5"/>
@@ -8077,15 +8094,15 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8"/>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -8324,15 +8341,15 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8"/>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -8499,11 +8516,11 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="8"/>
       <c r="D43" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E43" s="8"/>
       <c r="H43" s="5"/>

--- a/Planilha_organizacao_tarefas_2021.xlsx
+++ b/Planilha_organizacao_tarefas_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -351,7 +351,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -379,7 +379,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -407,7 +407,7 @@
     <xdr:ext cx="447675" cy="752475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -435,7 +435,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -463,7 +463,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -491,7 +491,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -519,7 +519,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -547,7 +547,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -575,7 +575,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -603,7 +603,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -631,7 +631,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -659,7 +659,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -687,7 +687,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -715,7 +715,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -743,7 +743,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -771,7 +771,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -799,7 +799,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -827,7 +827,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -855,7 +855,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -883,7 +883,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -911,7 +911,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -939,7 +939,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -967,7 +967,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -995,7 +995,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1023,7 +1023,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1051,7 +1051,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1079,7 +1079,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1107,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1135,7 +1135,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1168,7 +1168,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1196,7 +1196,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1224,7 +1224,7 @@
     <xdr:ext cx="447675" cy="752475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1252,7 +1252,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1280,7 +1280,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1308,7 +1308,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1336,7 +1336,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1364,7 +1364,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1392,7 +1392,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1420,7 +1420,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1448,7 +1448,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,7 +1476,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1504,7 +1504,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1532,7 +1532,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1560,7 +1560,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1588,7 +1588,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1616,7 +1616,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1644,7 +1644,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1672,7 +1672,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1700,7 +1700,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1728,7 +1728,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1756,7 +1756,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1784,7 +1784,7 @@
     <xdr:ext cx="438150" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1812,7 +1812,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1840,7 +1840,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1868,7 +1868,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1896,7 +1896,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1924,7 +1924,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1952,7 +1952,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1980,7 +1980,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2008,7 +2008,7 @@
     <xdr:ext cx="438150" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image2.png"/>
+        <xdr:cNvPr descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2036,7 +2036,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2064,7 +2064,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2662,7 +2662,9 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="13"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
@@ -2703,7 +2705,9 @@
         <v>12</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
@@ -2737,7 +2741,9 @@
         <v>20</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
@@ -2747,7 +2753,9 @@
         <v>9</v>
       </c>
       <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" s="20"/>
       <c r="H35" s="18"/>
     </row>
@@ -2757,7 +2765,9 @@
         <v>13</v>
       </c>
       <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
@@ -2767,7 +2777,9 @@
         <v>10</v>
       </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="21"/>
       <c r="H37" s="22"/>
     </row>
@@ -2777,7 +2789,9 @@
         <v>14</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>

--- a/Planilha_organizacao_tarefas_2021.xlsx
+++ b/Planilha_organizacao_tarefas_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -407,7 +407,7 @@
     <xdr:ext cx="447675" cy="752475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -435,7 +435,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -519,7 +519,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -547,7 +547,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -631,7 +631,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -659,7 +659,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -743,7 +743,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -771,7 +771,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -855,7 +855,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -883,7 +883,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -911,7 +911,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -995,7 +995,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1023,7 +1023,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1107,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1135,7 +1135,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1224,7 +1224,7 @@
     <xdr:ext cx="447675" cy="752475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1252,7 +1252,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1336,7 +1336,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1364,7 +1364,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1448,7 +1448,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,7 +1476,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1560,7 +1560,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1588,7 +1588,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1672,7 +1672,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1700,7 +1700,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1728,7 +1728,7 @@
     <xdr:ext cx="1285875" cy="533400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Texto&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1812,7 +1812,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1840,7 +1840,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1924,7 +1924,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1952,7 +1952,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2036,7 +2036,7 @@
     <xdr:ext cx="447675" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2064,7 +2064,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2858,7 +2858,9 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="24"/>
@@ -2970,7 +2972,9 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="24"/>
@@ -3082,7 +3086,9 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="24"/>
@@ -3110,7 +3116,9 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="20"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="24"/>
@@ -3138,7 +3146,9 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="20"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="24"/>
@@ -3166,7 +3176,9 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="24"/>
@@ -3194,7 +3206,9 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="24"/>
@@ -8060,9 +8074,9 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.7874015748031497" footer="0.0" header="0.0" left="0.3937007874015748" right="0.3937007874015748" top="0.7874015748031497"/>

--- a/Planilha_organizacao_tarefas_2021.xlsx
+++ b/Planilha_organizacao_tarefas_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -351,7 +351,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -435,7 +435,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -463,7 +463,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -547,7 +547,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -575,7 +575,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -659,7 +659,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -687,7 +687,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -771,7 +771,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -799,7 +799,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -883,7 +883,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -939,7 +939,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1023,7 +1023,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1051,7 +1051,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1135,7 +1135,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1168,7 +1168,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1252,7 +1252,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1280,7 +1280,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1364,7 +1364,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1392,7 +1392,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,7 +1476,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1504,7 +1504,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1588,7 +1588,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1616,7 +1616,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1700,7 +1700,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1756,7 +1756,7 @@
     <xdr:ext cx="419100" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1840,7 +1840,7 @@
     <xdr:ext cx="457200" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1868,7 +1868,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1952,7 +1952,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1980,7 +1980,7 @@
     <xdr:ext cx="419100" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2064,7 +2064,7 @@
     <xdr:ext cx="457200" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8074,9 +8074,9 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.7874015748031497" footer="0.0" header="0.0" left="0.3937007874015748" right="0.3937007874015748" top="0.7874015748031497"/>
@@ -8170,7 +8170,9 @@
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -8282,7 +8284,9 @@
     </row>
     <row r="11" ht="20.25" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="G11" s="11"/>
@@ -8314,7 +8318,9 @@
     </row>
     <row r="15">
       <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="G15" s="17"/>
@@ -8322,7 +8328,9 @@
     </row>
     <row r="16">
       <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="18"/>
       <c r="G16" s="20"/>
@@ -8330,7 +8338,9 @@
     </row>
     <row r="17">
       <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="18"/>
       <c r="G17" s="20"/>
@@ -8346,7 +8356,9 @@
     </row>
     <row r="19" ht="20.25" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="G19" s="11"/>
